--- a/buytandoors_design/catagory.xlsx
+++ b/buytandoors_design/catagory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Mild Steel Round Gas Tandoor(1)</t>
   </si>
@@ -73,13 +73,136 @@
   </si>
   <si>
     <t>Barrel Shape Copper Tandoor(3)</t>
+  </si>
+  <si>
+    <t>Quick Details</t>
+  </si>
+  <si>
+    <t>Place of Origin:</t>
+  </si>
+  <si>
+    <t>Delhi, India</t>
+  </si>
+  <si>
+    <t>Brand Name:</t>
+  </si>
+  <si>
+    <t>RCS</t>
+  </si>
+  <si>
+    <t>Model Number:</t>
+  </si>
+  <si>
+    <t>RSR-4</t>
+  </si>
+  <si>
+    <t>Type:</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Material:</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Installation:</t>
+  </si>
+  <si>
+    <t>Clay With Glasswool</t>
+  </si>
+  <si>
+    <t>Controlling Mode:</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Certification:</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Number of Ovens:</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>After-sales Service Provided:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Warranty:</t>
+  </si>
+  <si>
+    <t>Application:</t>
+  </si>
+  <si>
+    <t>OUTDOOR, HOTEL, Commercial</t>
+  </si>
+  <si>
+    <t>Power Source:</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Product name:</t>
+  </si>
+  <si>
+    <t>Stainless Steel Round Charcoal Tandoors</t>
+  </si>
+  <si>
+    <t>Keyword:</t>
+  </si>
+  <si>
+    <t>Restaurant tandoor</t>
+  </si>
+  <si>
+    <t>Usage:</t>
+  </si>
+  <si>
+    <t>Baking and Grilling</t>
+  </si>
+  <si>
+    <t>Export Country:</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Packing:</t>
+  </si>
+  <si>
+    <t>Wooden Crate</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>32"X32"X37"</t>
+  </si>
+  <si>
+    <t>Net Weight:</t>
+  </si>
+  <si>
+    <t>295 Kg</t>
+  </si>
+  <si>
+    <t>buytandoors.trustpass.alibaba.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +236,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -166,6 +308,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,6 +872,216 @@
         <v>3</v>
       </c>
       <c r="E16" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
